--- a/biology/Botanique/Aextoxicaceae/Aextoxicaceae.xlsx
+++ b/biology/Botanique/Aextoxicaceae/Aextoxicaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aextoxicaceae regroupe des plantes dicotylédones ; elle ne comprend qu'une seule espèce : Aextoxicon punctatum. C'est un grand arbre sempervirent originaire des forêts tempérées du centre du Chili où il est appelé olivillo en espagnol et tique en mapuche.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Aextoxicon composé du grec αίξ / aix, chèvre, et τοξικών / toxicon, empoisonné, en référence au fait que la plante est un poison pour les chèvres.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Angiosperm Phylogeny Website [23 mai 2006] situe cette famille dans le nouvel ordre des Berberidopsidales, avec les Berberidopsidaceae, choix qui a été confirmée par la classification phylogénétique APG III (2009)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Angiosperm Phylogeny Website [23 mai 2006] situe cette famille dans le nouvel ordre des Berberidopsidales, avec les Berberidopsidaceae, choix qui a été confirmée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (28 avr. 2010)[2], World Checklist of Selected Plant Families (WCSP)  (28 avr. 2010)[3], NCBI  (28 avr. 2010)[4] et DELTA Angio           (28 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (28 avr. 2010), World Checklist of Selected Plant Families (WCSP)  (28 avr. 2010), NCBI  (28 avr. 2010) et DELTA Angio           (28 avr. 2010) :
 genre Aextoxicon Ruiz &amp; Pav. (1794)</t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 avr. 2010)[3] et NCBI  (28 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (28 avr. 2010) et NCBI  (28 avr. 2010) :
 genre Aextoxicon Ruiz &amp; Pav. (1794)
 Aextoxicon punctatum Ruiz &amp; Pav. (1797)</t>
         </is>
